--- a/biology/Zoologie/Cnemaspis_karsticola/Cnemaspis_karsticola.xlsx
+++ b/biology/Zoologie/Cnemaspis_karsticola/Cnemaspis_karsticola.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cnemaspis karsticola est une espèce de geckos de la famille des Gekkonidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cnemaspis karsticola est une espèce de geckos de la famille des Gekkonidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Kelantan en Malaisie[1]. Elle se rencontre dans le Gunung Reng.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Kelantan en Malaisie. Elle se rencontre dans le Gunung Reng.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cnemaspis karsticola mesure, queue non comprise, jusqu'à 48,1 mm pour les mâles et jusqu'à  43,3 mm pour les femelles[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cnemaspis karsticola mesure, queue non comprise, jusqu'à 48,1 mm pour les mâles et jusqu'à  43,3 mm pour les femelles.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Grismer, Grismer, Wood &amp; Chan, 2008 : The distribution, taxonomy, and redescription of the geckos Cnemaspis affinis (Stoliczka 1887) and C. flavolineata (Nicholls 1949) with descriptions of a new montane species and two new lowland, karst- dwelling species from Peninsular Malaysia. Zootaxa, n. 1931, p. 1–24.</t>
         </is>
